--- a/biology/Médecine/Fontanelle_antérieure/Fontanelle_antérieure.xlsx
+++ b/biology/Médecine/Fontanelle_antérieure/Fontanelle_antérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fontanelle_ant%C3%A9rieure</t>
+          <t>Fontanelle_antérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fontanelle antérieure (ou fontanelle bregmatique ou grande fontanelle) est la plus grande des fontanelles située entre l'os frontal et les deux os pariétaux au niveau du bregma.
 Elle se situe à la jonction des sutures sagittale, coronale et métopique. Elle forme un losange d'environ 4 cm de diagonale antéro-postérieure et 2,5 cm de diagonale transversale.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fontanelle_ant%C3%A9rieure</t>
+          <t>Fontanelle_antérieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fontanelle antérieure est utile pour l'examen d'un nourrisson.
 Une fontanelle antérieure enfoncée est un signe de déshydratation, tandis qu'une fontanelle antérieure tendue ou bombée indique une hypertension intracrânienne.
